--- a/mvr_behavior_log.xlsx
+++ b/mvr_behavior_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="0" windowWidth="25360" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/mvr_behavior_log.xlsx
+++ b/mvr_behavior_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="6340" yWindow="0" windowWidth="25360" windowHeight="13980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="13">
   <si>
     <t>tripleY</t>
   </si>
@@ -50,15 +50,47 @@
   <si>
     <t>SessionType</t>
   </si>
+  <si>
+    <t>waterR</t>
+  </si>
+  <si>
+    <t>switchRW20</t>
+  </si>
+  <si>
+    <t>switchL20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,15 +113,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,16 +456,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -960,8 +997,614 @@
         <v>3</v>
       </c>
     </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>5001</v>
+      </c>
+      <c r="B50">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>5001</v>
+      </c>
+      <c r="B51">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>5001</v>
+      </c>
+      <c r="B52">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>5001</v>
+      </c>
+      <c r="B53">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>5001</v>
+      </c>
+      <c r="B54">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>5001</v>
+      </c>
+      <c r="B55">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>5002</v>
+      </c>
+      <c r="B56">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>5002</v>
+      </c>
+      <c r="B57">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>5002</v>
+      </c>
+      <c r="B58">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>5002</v>
+      </c>
+      <c r="B59">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>5002</v>
+      </c>
+      <c r="B60">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>5002</v>
+      </c>
+      <c r="B61">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>5002</v>
+      </c>
+      <c r="B62">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>5002</v>
+      </c>
+      <c r="B63">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>146</v>
+      </c>
+      <c r="B64">
+        <v>103</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>146</v>
+      </c>
+      <c r="B65">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>146</v>
+      </c>
+      <c r="B66">
+        <v>111</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>146</v>
+      </c>
+      <c r="B67">
+        <v>115</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>146</v>
+      </c>
+      <c r="B68">
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3">
+        <v>146</v>
+      </c>
+      <c r="B69" s="3">
+        <v>123</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>146</v>
+      </c>
+      <c r="B70">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>146</v>
+      </c>
+      <c r="B71">
+        <v>135</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>146</v>
+      </c>
+      <c r="B72">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>152</v>
+      </c>
+      <c r="B73">
+        <v>104</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>152</v>
+      </c>
+      <c r="B74">
+        <v>108</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>152</v>
+      </c>
+      <c r="B75">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>152</v>
+      </c>
+      <c r="B76">
+        <v>116</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>152</v>
+      </c>
+      <c r="B77">
+        <v>121</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>152</v>
+      </c>
+      <c r="B78">
+        <v>128</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>153</v>
+      </c>
+      <c r="B79">
+        <v>143</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>153</v>
+      </c>
+      <c r="B80">
+        <v>148</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>153</v>
+      </c>
+      <c r="B81">
+        <v>153</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>153</v>
+      </c>
+      <c r="B82">
+        <v>156</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>153</v>
+      </c>
+      <c r="B83">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>153</v>
+      </c>
+      <c r="B84">
+        <v>163</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>153</v>
+      </c>
+      <c r="B85">
+        <v>167</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>153</v>
+      </c>
+      <c r="B86">
+        <v>170</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>153</v>
+      </c>
+      <c r="B87">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>154</v>
+      </c>
+      <c r="B88">
+        <v>144</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>154</v>
+      </c>
+      <c r="B89">
+        <v>149</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>154</v>
+      </c>
+      <c r="B90">
+        <v>154</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>154</v>
+      </c>
+      <c r="B91">
+        <v>158</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>154</v>
+      </c>
+      <c r="B92">
+        <v>161</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>154</v>
+      </c>
+      <c r="B93">
+        <v>164</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>154</v>
+      </c>
+      <c r="B94">
+        <v>166</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>154</v>
+      </c>
+      <c r="B95">
+        <v>168</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>155</v>
+      </c>
+      <c r="B96">
+        <v>145</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>156</v>
+      </c>
+      <c r="B97">
+        <v>146</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>156</v>
+      </c>
+      <c r="B98">
+        <v>151</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>156</v>
+      </c>
+      <c r="B99">
+        <v>155</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="3">
+        <v>156</v>
+      </c>
+      <c r="B100">
+        <v>157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="3">
+        <v>156</v>
+      </c>
+      <c r="B101">
+        <v>160</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>156</v>
+      </c>
+      <c r="B102">
+        <v>162</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>156</v>
+      </c>
+      <c r="B103">
+        <v>165</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>156</v>
+      </c>
+      <c r="B104">
+        <v>169</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mvr_behavior_log.xlsx
+++ b/mvr_behavior_log.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
